--- a/WebContent/Templet/4.付款凭证-中间表-电子版反馈给综合室 - 模板.xlsx
+++ b/WebContent/Templet/4.付款凭证-中间表-电子版反馈给综合室 - 模板.xlsx
@@ -18,15 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>维护类开发</t>
   </si>
   <si>
     <t>工作内容摘要（与付款凭证-工作量确认相同）</t>
@@ -87,126 +84,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>质量展示平台新业务开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>黄秋燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评业务线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何倩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试综合管理平台新业务开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志祥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软科</t>
-  </si>
-  <si>
     <t>测试综合管理平台一期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡兴玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护类开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/27离职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/1入职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方国信</t>
-  </si>
-  <si>
-    <t>创科</t>
-  </si>
-  <si>
-    <t>爱立信</t>
-  </si>
-  <si>
-    <t>中科云数</t>
-  </si>
-  <si>
     <t>技术服务人员明细表-2017年第6月</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科云数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/31入职并请假3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6551,10 +6434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6578,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6600,46 +6483,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
@@ -6647,392 +6530,202 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1100</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <f>H3*I3</f>
-        <v>6600</v>
-      </c>
-      <c r="L3" s="2">
-        <f>J3+K3</f>
-        <v>6600</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f>H4*I4</f>
-        <v>14000</v>
-      </c>
-      <c r="L4" s="2">
-        <f>J4+K4</f>
-        <v>14000</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
-        <v>636</v>
-      </c>
-      <c r="I5" s="2">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f>H5*I5</f>
-        <v>13356</v>
-      </c>
-      <c r="L5" s="2">
-        <f>J5+K5</f>
-        <v>13356</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2">
-        <v>840</v>
-      </c>
-      <c r="I6" s="2">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f>H6*I6</f>
-        <v>17640</v>
-      </c>
-      <c r="L6" s="2">
-        <f>J6+K6</f>
-        <v>17640</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2">
-        <v>900</v>
-      </c>
-      <c r="I7" s="2">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7:K8" si="0">H7*I7</f>
-        <v>18900</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" ref="L7:L8" si="1">J7+K7</f>
-        <v>18900</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
-        <v>800</v>
-      </c>
-      <c r="I8" s="2">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>16800</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>16800</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="14.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2">
-        <v>800</v>
-      </c>
-      <c r="I9" s="2">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f>H9*I9</f>
-        <v>16800</v>
-      </c>
-      <c r="L9" s="2">
-        <f>J9+K9</f>
-        <v>16800</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="14.25">
-      <c r="A10" s="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2">
-        <v>800</v>
-      </c>
-      <c r="I10" s="2">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f>H10*I10</f>
-        <v>9600</v>
-      </c>
-      <c r="L10" s="2">
-        <f>J10+K10</f>
-        <v>9600</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7040,16 +6733,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
       <formula1>"维护类开发,项目类开发,项目类测试,维护类运营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F10 F3:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F12 F3:F7">
       <formula1>"维护类开发,维护类测试,项目类开发,项目类测试,维护类运维运营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N12">
       <formula1>"创科,中科云数,东方国信,爱立信,软科,彩讯,中软泰达,宏宇天创,越亮传奇"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7069,7 +6762,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>

--- a/WebContent/Templet/4.付款凭证-中间表-电子版反馈给综合室 - 模板.xlsx
+++ b/WebContent/Templet/4.付款凭证-中间表-电子版反馈给综合室 - 模板.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -80,15 +80,7 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>质量展示平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试综合管理平台一期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术服务人员明细表-2017年第6月</t>
+    <t>技术服务人员明细表-2017年第12月</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -6436,8 +6428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6461,7 +6453,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6529,9 +6521,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6550,9 +6540,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6571,9 +6559,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6592,9 +6578,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6613,9 +6597,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6634,9 +6616,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6655,9 +6635,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6673,7 +6651,9 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="14.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -6690,7 +6670,9 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="14.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -6708,11 +6690,9 @@
     </row>
     <row r="12" spans="1:15" ht="14.25">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>

--- a/WebContent/Templet/4.付款凭证-中间表-电子版反馈给综合室 - 模板.xlsx
+++ b/WebContent/Templet/4.付款凭证-中间表-电子版反馈给综合室 - 模板.xlsx
@@ -6429,7 +6429,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6631,12 +6631,12 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25">
+    <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
@@ -6650,12 +6650,12 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25">
+    <row r="10" spans="1:15" ht="17.25" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
@@ -6669,12 +6669,12 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25">
+    <row r="11" spans="1:15" ht="17.25" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
@@ -6688,12 +6688,12 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25">
+    <row r="12" spans="1:15" ht="17.25" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
